--- a/biology/Botanique/Hymenoglossum/Hymenoglossum.xlsx
+++ b/biology/Botanique/Hymenoglossum/Hymenoglossum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenoglossum est un genre obsolète de fougères de la famille des Hyménophyllacées réduit à une seule espèce : Hymenoglossum cruentum (Hymenophyllum cruentum).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La caractéristique du genre tient principalement en des frondes à limbe simple entier, les autres caractéristiques étant très semblables au genre Hymenophyllum.
 </t>
@@ -542,12 +556,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été créé par Karel Bořivoj Presl en 1843[1]. Il a été assez communément accepté (en particulier par Conrad Vernon Morton).
-En 1851, Thomas Moore en fait une section du genre Hymenophyllum[2]
-En 1974, Conrad Vernon Morton reprend la position de Karel Bořivoj Presl et en fait un genre à part entière[3].
-En 1981, Rolla Milton Tryon et Alice Faber Tryon en font un sous-genre du genre Hymenophyllum[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été créé par Karel Bořivoj Presl en 1843. Il a été assez communément accepté (en particulier par Conrad Vernon Morton).
+En 1851, Thomas Moore en fait une section du genre Hymenophyllum
+En 1974, Conrad Vernon Morton reprend la position de Karel Bořivoj Presl et en fait un genre à part entière.
+En 1981, Rolla Milton Tryon et Alice Faber Tryon en font un sous-genre du genre Hymenophyllum,.
 En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito confirment la position de sous-genre du genre Hymenophyllum.
 </t>
         </is>
@@ -577,7 +593,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Karel Bořivoj Presl - Hymenophyllaceae - Pragues, 1843 - p. 35
